--- a/Data/Transitions/18901896Translation.xlsx
+++ b/Data/Transitions/18901896Translation.xlsx
@@ -247,10 +247,10 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9674354805933754}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9675229264832548}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -445,6 +445,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -638,9 +641,6 @@
   </si>
   <si>
     <t>{319.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{321.0: 1.0}</t>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
